--- a/image/location.xlsx
+++ b/image/location.xlsx
@@ -952,44 +952,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="81.66015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.43359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="81.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.77734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="65.8671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="66.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.36328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/location.xlsx
+++ b/image/location.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="255">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -410,10 +410,6 @@
   </si>
   <si>
     <t>Location.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name of the location as used by humans</t>
@@ -952,44 +948,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="81.6484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="81.66015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.43359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="66.3671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.36328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="65.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2423,16 +2419,16 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2497,10 +2493,10 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>39</v>
@@ -2508,7 +2504,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2531,19 +2527,19 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2592,7 +2588,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2607,7 +2603,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2618,7 +2614,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2641,17 +2637,17 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2700,7 +2696,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2715,7 +2711,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -2726,7 +2722,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2752,16 +2748,16 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2789,10 +2785,10 @@
         <v>114</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -2810,7 +2806,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2825,18 +2821,18 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2859,13 +2855,13 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2892,14 +2888,14 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
       </c>
@@ -2916,7 +2912,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2931,18 +2927,18 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2965,13 +2961,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3022,7 +3018,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3037,10 +3033,10 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -3048,7 +3044,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3071,19 +3067,19 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3132,7 +3128,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3147,10 +3143,10 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3158,7 +3154,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3181,17 +3177,17 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3216,14 +3212,14 @@
         <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>39</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3255,18 +3251,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3289,17 +3285,17 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3348,7 +3344,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3360,10 +3356,10 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3374,7 +3370,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3397,13 +3393,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3454,7 +3450,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3480,7 +3476,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3509,7 +3505,7 @@
         <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>96</v>
@@ -3562,7 +3558,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3588,11 +3584,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3614,10 +3610,10 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>96</v>
@@ -3672,7 +3668,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3698,7 +3694,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3721,13 +3717,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3778,7 +3774,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>48</v>
@@ -3793,7 +3789,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3804,7 +3800,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3827,13 +3823,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3884,7 +3880,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>48</v>
@@ -3899,7 +3895,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -3910,7 +3906,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3933,13 +3929,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3990,7 +3986,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4005,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -4016,7 +4012,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4039,19 +4035,19 @@
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4100,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4115,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4126,7 +4122,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4149,17 +4145,17 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4208,7 +4204,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4223,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4234,7 +4230,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4257,16 +4253,16 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4316,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4328,10 +4324,10 @@
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4342,7 +4338,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4365,13 +4361,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4422,7 +4418,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4448,7 +4444,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4477,7 +4473,7 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>96</v>
@@ -4530,7 +4526,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4556,11 +4552,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4582,10 +4578,10 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>96</v>
@@ -4640,7 +4636,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4666,7 +4662,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4692,10 +4688,10 @@
         <v>67</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4725,11 +4721,11 @@
         <v>114</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4746,7 +4742,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4761,7 +4757,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -4772,7 +4768,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4795,13 +4791,13 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4852,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4867,7 +4863,7 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -4878,7 +4874,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4901,13 +4897,13 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4958,7 +4954,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4973,7 +4969,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -4984,7 +4980,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5007,13 +5003,13 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5064,7 +5060,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5079,7 +5075,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5090,7 +5086,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5113,13 +5109,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5170,7 +5166,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5196,7 +5192,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5219,17 +5215,17 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5278,7 +5274,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
